--- a/assets/Credits.xlsx
+++ b/assets/Credits.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spec\Documents\GitHub\TowerDefense\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87FA8EE-9083-4FE0-B557-011FE5A76FD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{173C6011-6332-4434-BEDD-56C99C8DE6FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-9810" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,51 +32,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Delapouite</t>
+    <t>Intro</t>
   </si>
   <si>
-    <t>https://game-icons.net/1x1/delapouite/frozen-ring.html</t>
+    <t>https://opengameart.org/content/baroque-opusendo</t>
   </si>
   <si>
-    <t>https://game-icons.net/1x1/delapouite/evil-love.html</t>
-  </si>
-  <si>
-    <t>Demonologist</t>
-  </si>
-  <si>
-    <t>Lucifer</t>
-  </si>
-  <si>
-    <t>Skoll</t>
-  </si>
-  <si>
-    <t>https://game-icons.net/1x1/skoll/fangs.html</t>
-  </si>
-  <si>
-    <t>Bloodhound</t>
-  </si>
-  <si>
-    <t>https://game-icons.net/1x1/delapouite/woman-elf-face.html</t>
-  </si>
-  <si>
-    <t>Elven</t>
-  </si>
-  <si>
-    <t>Lorc</t>
-  </si>
-  <si>
-    <t>https://game-icons.net/1x1/lorc/death-zone.html</t>
-  </si>
-  <si>
-    <t>Death Knight</t>
-  </si>
-  <si>
-    <t>https://game-icons.net/1x1/lorc/sharped-teeth-skull.html</t>
-  </si>
-  <si>
-    <t>https://game-icons.net/1x1/lorc/batwing-emblem.html</t>
+    <t>Baroque Opusendo</t>
   </si>
 </sst>
 </file>
@@ -407,13 +372,14 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -424,66 +390,30 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{ABB6B130-DBAE-4FF5-8960-A171EDA0C82F}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{F5D3C1B7-9F1E-4FFE-BC69-B999D9A24D69}"/>
-    <hyperlink ref="B20" r:id="rId3" xr:uid="{87B2BDCA-F07D-46AA-A479-80158D08888D}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{2BA39EA9-1DDF-4FA6-AEF2-7BA3F7EEFC89}"/>
-    <hyperlink ref="B30" r:id="rId5" xr:uid="{D815E688-353A-447E-AAD3-D5166EAF5217}"/>
-    <hyperlink ref="B31" r:id="rId6" xr:uid="{ACF5A7CE-019C-466F-8C3D-F31A19788FCF}"/>
-    <hyperlink ref="B32" r:id="rId7" xr:uid="{1F5E7054-BB31-42EA-AE2A-1DED2E442125}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{382A3497-1BB8-4E89-8205-74EDDE7EE6F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/Credits.xlsx
+++ b/assets/Credits.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spec\Documents\GitHub\TowerDefense\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{173C6011-6332-4434-BEDD-56C99C8DE6FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06D9078-818A-4416-B0F4-23BEBE588B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-9810" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Intro</t>
   </si>
@@ -41,6 +40,18 @@
   </si>
   <si>
     <t>Baroque Opusendo</t>
+  </si>
+  <si>
+    <t>https://opengameart.org/content/rpg-gui-construction-kit-v10</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>https://opengameart.org/content/0-ad-gui-elements</t>
+  </si>
+  <si>
+    <t>Options</t>
   </si>
 </sst>
 </file>
@@ -372,7 +383,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,10 +405,20 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
@@ -414,6 +435,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{382A3497-1BB8-4E89-8205-74EDDE7EE6F9}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{8050D7D9-0310-4609-8AF9-3DE90E64F8E8}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{66F01888-F753-4244-B70A-BF75DE647C76}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/Credits.xlsx
+++ b/assets/Credits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spec\Documents\GitHub\TowerDefense\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06D9078-818A-4416-B0F4-23BEBE588B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A628BB7-5B1A-420B-B42B-010F7BECC95A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Intro</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>Options</t>
+  </si>
+  <si>
+    <t>https://opengameart.org/content/blood-magic-effect</t>
+  </si>
+  <si>
+    <t>Blood - Magic Effect</t>
+  </si>
+  <si>
+    <t>https://opengameart.org/users/cethiel</t>
   </si>
 </sst>
 </file>
@@ -380,20 +389,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,7 +414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -412,12 +422,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
@@ -437,6 +458,8 @@
     <hyperlink ref="B1" r:id="rId1" xr:uid="{382A3497-1BB8-4E89-8205-74EDDE7EE6F9}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{8050D7D9-0310-4609-8AF9-3DE90E64F8E8}"/>
     <hyperlink ref="B3" r:id="rId3" xr:uid="{66F01888-F753-4244-B70A-BF75DE647C76}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{B4573DB9-B744-40BB-B3AE-3DAF120F922A}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{CBD65317-B3A4-414C-BFC4-E7E27312C38B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/Credits.xlsx
+++ b/assets/Credits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spec\Documents\GitHub\TowerDefense\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A628BB7-5B1A-420B-B42B-010F7BECC95A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CA1B10-0A7F-4636-97C5-0F7B5ADBCD15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-9810" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Intro</t>
   </si>
@@ -61,6 +63,12 @@
   </si>
   <si>
     <t>https://opengameart.org/users/cethiel</t>
+  </si>
+  <si>
+    <t>https://opengameart.org/content/lava-splash</t>
+  </si>
+  <si>
+    <t>Lava</t>
   </si>
 </sst>
 </file>
@@ -392,7 +400,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,6 +449,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
     </row>
@@ -460,6 +476,7 @@
     <hyperlink ref="B3" r:id="rId3" xr:uid="{66F01888-F753-4244-B70A-BF75DE647C76}"/>
     <hyperlink ref="B4" r:id="rId4" xr:uid="{B4573DB9-B744-40BB-B3AE-3DAF120F922A}"/>
     <hyperlink ref="D4" r:id="rId5" xr:uid="{CBD65317-B3A4-414C-BFC4-E7E27312C38B}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{F0314AD0-AE16-401A-9AD3-D9FBBF97B4D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
